--- a/wash_P/TUR.xlsx
+++ b/wash_P/TUR.xlsx
@@ -34685,7 +34685,7 @@
         <v>0</v>
       </c>
       <c r="KL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM11" t="n">
         <v>0</v>
@@ -34694,7 +34694,7 @@
         <v>0</v>
       </c>
       <c r="KO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP11" t="n">
         <v>0</v>
@@ -37204,13 +37204,13 @@
         <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT12" t="n">
         <v>0</v>
@@ -40338,10 +40338,10 @@
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU13" t="n">
         <v>0</v>
@@ -55667,7 +55667,7 @@
         <v>0</v>
       </c>
       <c r="AMV17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMW17" t="n">
         <v>0</v>
@@ -79410,7 +79410,7 @@
         <v>0</v>
       </c>
       <c r="WK25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WL25" t="n">
         <v>0</v>
@@ -82538,7 +82538,7 @@
         <v>0</v>
       </c>
       <c r="WK26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WL26" t="n">
         <v>0</v>
@@ -93212,7 +93212,7 @@
         <v>0</v>
       </c>
       <c r="AMY29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMZ29" t="n">
         <v>0</v>
